--- a/Files/TestExcelFile.xlsx
+++ b/Files/TestExcelFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
   <si>
     <t>Wael</t>
   </si>
